--- a/Assets/_TableResources/Table_Enemys.xlsx
+++ b/Assets/_TableResources/Table_Enemys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thdck\Desktop\Projects\ShootingGame\Assets\_TableResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF963DA3-7D35-45DD-90B3-17219A09450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47000CB2-A7C5-4DD6-BBB7-E4B28DAF28E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="670" yWindow="2070" windowWidth="14300" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="3860" windowWidth="18250" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemys" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEnemy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEnemy2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEnemy3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,35 +63,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestEnemy1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestEnemy2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestEnemy3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Enemys/TestEnemy1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Enemys/TestEnemy2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Enemys/TestEnemy3</t>
+    <t>Capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot_Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot_Spped</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,19 +401,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="31.75" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,88 +425,124 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
       </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>10</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>15</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_TableResources/Table_Enemys.xlsx
+++ b/Assets/_TableResources/Table_Enemys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thdck\Desktop\Projects\ShootingGame\Assets\_TableResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47000CB2-A7C5-4DD6-BBB7-E4B28DAF28E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677CE27-97E1-4F80-9C48-4B2151D012C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="3860" windowWidth="18250" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1900" windowWidth="17370" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemys" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -415,6 +415,7 @@
     <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="31.75" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -469,16 +470,16 @@
         <v>50</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">

--- a/Assets/_TableResources/Table_Enemys.xlsx
+++ b/Assets/_TableResources/Table_Enemys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thdck\Desktop\Projects\ShootingGame\Assets\_TableResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677CE27-97E1-4F80-9C48-4B2151D012C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B684484-AD88-4BDA-ABD0-9A94AC062AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1900" windowWidth="17370" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3170" windowWidth="23250" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemys" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,14 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestEnemy2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestEnemy3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +69,19 @@
   <si>
     <t>Shot_Spped</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIAttackClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIClosedAttack</t>
+  </si>
+  <si>
+    <t>AIDashAttack</t>
+  </si>
+  <si>
+    <t>AIShotAttack</t>
   </si>
 </sst>
 </file>
@@ -401,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -416,9 +421,11 @@
     <col min="7" max="7" width="31.75" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="15.9140625" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="16" max="16" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,31 +433,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -470,24 +480,27 @@
         <v>50</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -513,13 +526,16 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -537,17 +553,25 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{3BF9FEAA-BB54-47B7-9DA9-ECBFFA57CE00}">
+      <formula1>$P$6:$P$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/_TableResources/Table_Enemys.xlsx
+++ b/Assets/_TableResources/Table_Enemys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thdck\Desktop\Projects\ShootingGame\Assets\_TableResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B684484-AD88-4BDA-ABD0-9A94AC062AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88A9FD-6D9E-49E7-9153-AE6DA3060F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3170" windowWidth="23250" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-950" yWindow="1440" windowWidth="17330" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemys" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestEnemy1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,13 +71,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Turtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AIClosedAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard2</t>
+  </si>
+  <si>
+    <t>Wizard3</t>
+  </si>
+  <si>
+    <t>AIShotAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetalonGreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetalonPurple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetalonRed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AIDashAttack</t>
-  </si>
-  <si>
-    <t>AIShotAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -406,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -433,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -465,22 +494,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -492,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -500,22 +529,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -535,43 +564,213 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F7">
         <v>300</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{3BF9FEAA-BB54-47B7-9DA9-ECBFFA57CE00}">
-      <formula1>$P$6:$P$8</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/_TableResources/Table_Enemys.xlsx
+++ b/Assets/_TableResources/Table_Enemys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thdck\Desktop\Projects\ShootingGame\Assets\_TableResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88A9FD-6D9E-49E7-9153-AE6DA3060F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D6AA29-1298-4E30-BC11-C6057610B775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-950" yWindow="1440" windowWidth="17330" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50" yWindow="2730" windowWidth="20070" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemys" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -652,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -687,16 +687,16 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -722,16 +722,16 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
